--- a/C题机场的出租车问题/新郑机场每小时航班到达比.xlsx
+++ b/C题机场的出租车问题/新郑机场每小时航班到达比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Desktop\数模培训\C题机场的出租车问题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C79B0-0861-4D8E-99A8-2012622E2285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE1B17C-0A5E-4718-BAA1-15FA099B2BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="15060" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>时间</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>所占日流量比例</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B647332-BA55-42D4-86F2-33ECBB94863E}" type="CELLRANGE">
+                    <a:fld id="{C457DFE2-076B-4215-920A-803D0D010C99}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -268,7 +265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A97212C-025C-46A2-AE44-813943BC35B1}" type="CELLRANGE">
+                    <a:fld id="{2D3533FB-762C-43BE-A7ED-4B985F4AC60E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -302,7 +299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A25244B-E8CE-44D1-A375-9A6963D68D44}" type="CELLRANGE">
+                    <a:fld id="{9852BE2F-7900-404B-B516-8FE20E4ED9FB}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -336,7 +333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B7BA33E-C9A1-48E5-9DEC-239AF92EFA37}" type="CELLRANGE">
+                    <a:fld id="{2A9E8775-582D-40D5-82E3-D6CD8E9EECA9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -370,7 +367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42165ABE-B454-4780-A00D-4186D0BAD9AC}" type="CELLRANGE">
+                    <a:fld id="{A270D7CE-3532-4626-BAF6-F81661C41D5C}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -404,7 +401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE002EE3-0879-478A-AB87-27E040A1604A}" type="CELLRANGE">
+                    <a:fld id="{9FD28D3B-1E2A-4DA5-8878-8B8C82B032B4}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -438,7 +435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47F20FC5-F846-412F-88A7-660EF95C8E24}" type="CELLRANGE">
+                    <a:fld id="{C511C93D-E56F-4444-A938-FB91BB01EA29}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -472,7 +469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21193042-91CC-4CC7-BB3C-D79ACAB02ACD}" type="CELLRANGE">
+                    <a:fld id="{6727DD45-FA8C-420B-9CA1-91B810363FA0}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -506,7 +503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07507958-21AF-4F84-B84C-75144D77A9D0}" type="CELLRANGE">
+                    <a:fld id="{6D5CCC40-A2DC-4B08-8DE7-5E605D530DAE}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -540,7 +537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98F18844-58D2-449A-92E9-963F0BCCBCF7}" type="CELLRANGE">
+                    <a:fld id="{90DEA02F-8F8E-4890-9D89-97C4CB665860}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -574,7 +571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7D8918C-6520-4209-A51C-05D982B273A4}" type="CELLRANGE">
+                    <a:fld id="{FD3357D9-0F79-448A-88FE-2EDC454E19D8}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -608,7 +605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3905A36A-459C-424E-82AC-4F056FB1753C}" type="CELLRANGE">
+                    <a:fld id="{62F62D6B-90C5-4D83-8166-DB358E4C41AF}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -642,7 +639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C06C615-0CFF-44FB-A1C7-632A74596E9B}" type="CELLRANGE">
+                    <a:fld id="{39EE7FFF-F005-4840-ABA2-D0E2D7D30A8E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -676,7 +673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7FF203E-CAC1-4EA6-B7C8-A3C951ED30CF}" type="CELLRANGE">
+                    <a:fld id="{E69A23CB-16C5-4EB3-BE72-0CB5F871FC08}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -710,7 +707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEA837A8-5094-4CEB-AFBE-26E85BDFE72E}" type="CELLRANGE">
+                    <a:fld id="{039C9BA8-6AF9-4A89-A16D-CD035534095F}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -744,7 +741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC2B4E3B-79CB-4845-90BC-312901CB5125}" type="CELLRANGE">
+                    <a:fld id="{AA5B280D-038B-49AF-8AA0-1E20BA6B4BEC}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -848,7 +845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{848EFAA9-23FE-4C5D-A4FF-EA4E6B6A2BD3}" type="CELLRANGE">
+                    <a:fld id="{F1EC2F53-F95A-45B7-91E2-68C81F20485B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -882,7 +879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED6D3815-0807-495F-8B25-9FBAA21FCC7A}" type="CELLRANGE">
+                    <a:fld id="{7A420D0D-7556-4136-921E-25AF7023B179}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -916,7 +913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB5C695A-BE58-484F-82F2-E528CC5574BE}" type="CELLRANGE">
+                    <a:fld id="{5AFBBF9E-B259-4A43-AB20-A2E5D907B934}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -950,7 +947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E167385-9478-4DB2-B67C-EE90629111C3}" type="CELLRANGE">
+                    <a:fld id="{4759C121-EC15-4070-B205-756FC723298D}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -984,7 +981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48B8AA32-47A9-4E9A-849E-38FEA77F7476}" type="CELLRANGE">
+                    <a:fld id="{0A1E7769-6C8C-4F8E-BCFC-5F71DB2207CA}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1018,7 +1015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32FE13A4-F2E7-4C54-8AAD-BD88F4547527}" type="CELLRANGE">
+                    <a:fld id="{7C4440A7-F724-4D82-977D-0B8AD96FFC1B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2392,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2679,17 +2676,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <f>SUM(B2:B25)</f>
-        <v>8311</v>
-      </c>
-      <c r="C26" s="1">
-        <f>SUM(C2:C25)</f>
-        <v>0.99969999999999992</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
